--- a/data_year/zb/资源和环境/草原建设利用.xlsx
+++ b/data_year/zb/资源和环境/草原建设利用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +757,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>11045.9</v>
+        <v>11.0459</v>
       </c>
       <c r="G10" t="n">
         <v>9838.934333333331</v>
@@ -770,6 +770,32 @@
       </c>
       <c r="J10" t="n">
         <v>5422.332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>4.19878</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7919.25346839773</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3239.8926</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37618.8678246127</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10191.3094666667</v>
       </c>
     </row>
   </sheetData>
